--- a/source_data_old/SDG511_data.xlsx
+++ b/source_data_old/SDG511_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{666D5AAA-CCC9-4763-8811-9660FC14C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1321543-C83B-4165-B0F3-15BF8340CC11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9C0BC-4DA3-4CBB-9911-5E2CC6CC7E3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="8805" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal5" sheetId="2" r:id="rId1"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42754,6 +42754,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -42762,22 +42770,39 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0612748-005D-43F5-9DCB-F2F87864E3FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0612748-005D-43F5-9DCB-F2F87864E3FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2886C10D-9ACA-43BE-9680-5752AE291950}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625EDF65-5FB2-4D20-BA71-1E6C4FD3114F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625EDF65-5FB2-4D20-BA71-1E6C4FD3114F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2886C10D-9ACA-43BE-9680-5752AE291950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>